--- a/rs tablespace definition.xlsx
+++ b/rs tablespace definition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="810" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ts_radiosilence" sheetId="19" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="rs_contact_location" sheetId="17" r:id="rId10"/>
     <sheet name="rs_contact_subject" sheetId="18" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="147">
   <si>
     <t>History</t>
   </si>
@@ -216,12 +216,6 @@
     <t>locationList</t>
   </si>
   <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
     <t>contact_Id</t>
   </si>
   <si>
@@ -231,21 +225,12 @@
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>rateOfferedCents</t>
-  </si>
-  <si>
     <t>expenseList_Id</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>costCents</t>
-  </si>
-  <si>
-    <t>taxCents</t>
-  </si>
-  <si>
     <t>expense_Id</t>
   </si>
   <si>
@@ -391,18 +376,118 @@
   </si>
   <si>
     <t>Table Name</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>rateOffered</t>
+  </si>
+  <si>
+    <t>hired</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Fulford</t>
+  </si>
+  <si>
+    <t>james.patrick.fulford@gmail.com</t>
+  </si>
+  <si>
+    <t>603 732 7455</t>
+  </si>
+  <si>
+    <t>Manchester Community College</t>
+  </si>
+  <si>
+    <t>1066 Front Street</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>RS0</t>
+  </si>
+  <si>
+    <t>L0</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Manchester Barnes and Noble</t>
+  </si>
+  <si>
+    <t>1741 South Willow Street</t>
+  </si>
+  <si>
+    <t>MrTheEd</t>
+  </si>
+  <si>
+    <t>Cauthorn</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>RS1</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>Nothing Really</t>
+  </si>
+  <si>
+    <t>Nowhere</t>
+  </si>
+  <si>
+    <t>personclaimed</t>
+  </si>
+  <si>
+    <t>dateIncurred</t>
+  </si>
+  <si>
+    <t>17-APR-16</t>
+  </si>
+  <si>
+    <t>Fake Data</t>
+  </si>
+  <si>
+    <t>Thin Air</t>
+  </si>
+  <si>
+    <t>Utopia</t>
+  </si>
+  <si>
+    <t>Unreal Object</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +505,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -460,11 +553,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -476,9 +570,14 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -759,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,33 +878,33 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -815,15 +914,15 @@
         <v>100000000</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -836,15 +935,15 @@
         <v>1000</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -854,22 +953,22 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E4" s="6">
         <f>E6*10</f>
         <v>100000000000</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -882,65 +981,65 @@
         <v>10000</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C6" s="8">
         <f>LOG10(E6)+LEN(A6)</f>
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E6" s="6">
         <f>E2*100</f>
         <v>10000000000</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C7" s="8">
         <f>LOG10(E7)+LEN(A7)</f>
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E7" s="6">
         <f>E6*10</f>
         <v>100000000000</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -953,18 +1052,18 @@
         <v>10000</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
@@ -974,46 +1073,46 @@
         <v>10000</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
         <v>96</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1027,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,10 +1141,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"INSERT INTO rs_contact_location (" &amp; A1 &amp; ", " &amp; B1 &amp; ") values ("</f>
@@ -1053,9 +1152,39 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
       <c r="C2" s="3" t="str">
         <f>$C$1 &amp; "'" &amp; A2 &amp; "', '" &amp; B2 &amp; "');"</f>
-        <v>INSERT INTO rs_contact_location (contact_Id, location_Id) values ('', '');</v>
+        <v>INSERT INTO rs_contact_location (contact_Id, location_Id) values ('RS0', 'L0');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f>$C$1 &amp; "'" &amp; A3 &amp; "', '" &amp; B3 &amp; "');"</f>
+        <v>INSERT INTO rs_contact_location (contact_Id, location_Id) values ('RS0', 'L1');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>$C$1 &amp; "'" &amp; A4 &amp; "', '" &amp; B4 &amp; "');"</f>
+        <v>INSERT INTO rs_contact_location (contact_Id, location_Id) values ('RS1', 'L0');</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1197,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,10 +1208,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"INSERT INTO rs_contact_subject (" &amp; A1 &amp; ", " &amp; B1 &amp; ") values ("</f>
@@ -1090,9 +1219,12 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
       <c r="C2" s="3" t="str">
         <f>$C$1 &amp; "'" &amp; A2 &amp; "', '" &amp; B2 &amp; "');"</f>
-        <v>INSERT INTO rs_contact_subject (contact_Id, subject_Id) values ('', '');</v>
+        <v>INSERT INTO rs_contact_subject (contact_Id, subject_Id) values ('RS0', '');</v>
       </c>
     </row>
   </sheetData>
@@ -1104,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,26 +1254,26 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G1" s="3" t="str">
-        <f>"INSERT INTO rs_payments (" &amp;  A1 &amp; ", " &amp;B1 &amp; ", " &amp;C1 &amp; ", " &amp;D1 &amp; ", " &amp;E1 &amp; ", " &amp; F1 &amp;") values ("</f>
-        <v>INSERT INTO rs_payments (contact_Id, fname, lname, emailAddress, phoneNumber, rateOfferedCents) values (</v>
+        <f>"INSERT INTO contacts (" &amp;  A1 &amp; ", " &amp;B1 &amp; ", " &amp;C1 &amp; ", " &amp;D1 &amp; ", " &amp;E1 &amp; ", " &amp; F1 &amp;") values ("</f>
+        <v>INSERT INTO contacts (contact_Id, firstname, lastname, emailAddress, phoneNumber, rateOffered) values (</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>27</v>
@@ -1167,9 +1299,24 @@
         <f>"RS" &amp; ROW()-2</f>
         <v>RS0</v>
       </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="G2" s="3" t="str">
         <f>G$1 &amp;"'" &amp; A2 &amp; "',  '" &amp; B2 &amp; "' , '" &amp; C2 &amp; "' ,  '" &amp; D2 &amp; "' ,  '" &amp; E2 &amp; "', " &amp; F2 &amp; "  );"</f>
-        <v>INSERT INTO rs_payments (contact_Id, fname, lname, emailAddress, phoneNumber, rateOfferedCents) values ('RS0',  '' , '' ,  '' ,  '',   );</v>
+        <v>INSERT INTO contacts (contact_Id, firstname, lastname, emailAddress, phoneNumber, rateOffered) values ('RS0',  'James' , 'Fulford' ,  'james.patrick.fulford@gmail.com' ,  '603 732 7455', 0  );</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -1180,9 +1327,24 @@
         <f t="shared" ref="A3:A46" si="0">"RS" &amp; ROW()-2</f>
         <v>RS1</v>
       </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G4" si="1">G$1 &amp;"'" &amp; A3 &amp; "',  '" &amp; B3 &amp; "' , '" &amp; C3 &amp; "' ,  '" &amp; D3 &amp; "' ,  '" &amp; E3 &amp; "', " &amp; F3 &amp; "  );"</f>
-        <v>INSERT INTO rs_payments (contact_Id, fname, lname, emailAddress, phoneNumber, rateOfferedCents) values ('RS1',  '' , '' ,  '' ,  '',   );</v>
+        <v>INSERT INTO contacts (contact_Id, firstname, lastname, emailAddress, phoneNumber, rateOffered) values ('RS1',  'MrTheEd' , 'Cauthorn' ,  'null' ,  'null', 20  );</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -1210,7 +1372,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO rs_payments (contact_Id, fname, lname, emailAddress, phoneNumber, rateOfferedCents) values ('RS2',  '' , '' ,  '' ,  '',   );</v>
+        <v>INSERT INTO contacts (contact_Id, firstname, lastname, emailAddress, phoneNumber, rateOffered) values ('RS2',  '' , '' ,  '' ,  '',   );</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
@@ -1490,8 +1652,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1500,7 +1665,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,10 +1679,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>41</v>
@@ -1547,7 +1712,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -1580,7 +1745,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -1601,7 +1766,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
@@ -1622,7 +1787,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -1643,7 +1808,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -1669,197 +1834,289 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="171.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="3" t="str">
-        <f>"INSERT INTO rs_expenses (" &amp;A1 &amp; ", " &amp;B1 &amp; ", " &amp; C1 &amp; ", " &amp; D1 &amp; ", " &amp; E1 &amp; ", " &amp;  F1 &amp; ") values ("</f>
-        <v>INSERT INTO rs_expenses (expense_Id, expenseList_Id, costCents, taxCents, object, quantity) values (</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="3" t="str">
+        <f>"INSERT INTO expenses (" &amp;A1 &amp; ", " &amp;B1 &amp; ", " &amp; C1 &amp; ", " &amp; D1 &amp; ", " &amp; E1 &amp; ", " &amp; F1 &amp; ", " &amp; G1 &amp; ", " &amp; H1 &amp; ", " &amp; I1 &amp; ") values ("</f>
+        <v>INSERT INTO expenses (expense_Id, expenseList_Id, cost, tax, object, dateIncurred, personclaimed, source, quantity) values (</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>"EX" &amp; ROW()-2</f>
         <v>EX0</v>
       </c>
-      <c r="G2" s="3" t="str">
-        <f>G$1 &amp;"'" &amp; A2 &amp; "', " &amp; B2 &amp; ", " &amp; C2 &amp; ", " &amp; D2 &amp; ", '"  &amp; E2 &amp; "' , "  &amp; F2 &amp; " );"</f>
-        <v>INSERT INTO rs_expenses (expense_Id, expenseList_Id, costCents, taxCents, object, quantity) values ('EX0', , , , '' ,  );</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="12">
+        <v>9.76</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2">
+        <v>42</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f>J$1 &amp;"'" &amp; A2 &amp; "', '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp; ", '"  &amp; E2 &amp; "' , '" &amp;  F2   &amp; "', '" &amp; G2 &amp; "', '" &amp; H2 &amp; "', "  &amp; I2 &amp; " );"</f>
+        <v>INSERT INTO expenses (expense_Id, expenseList_Id, cost, tax, object, dateIncurred, personclaimed, source, quantity) values ('EX0', 'E008', 9.76, 0, 'Nothing Really' , '17-APR-16', 'RS0', 'Nowhere', 42 );</v>
+      </c>
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
       <c r="N2" t="s">
         <v>33</v>
       </c>
       <c r="O2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A19" si="0">"EX" &amp; ROW()-2</f>
         <v>EX1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>10.24</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f t="shared" ref="J3:J4" si="1">J$1 &amp;"'" &amp; A3 &amp; "', '" &amp; B3 &amp; "', " &amp; C3 &amp; ", " &amp; D3 &amp; ", '"  &amp; E3 &amp; "' , '" &amp;  F3   &amp; "', '" &amp; G3 &amp; "', '" &amp; H3 &amp; "', "  &amp; I3 &amp; " );"</f>
+        <v>INSERT INTO expenses (expense_Id, expenseList_Id, cost, tax, object, dateIncurred, personclaimed, source, quantity) values ('EX1', 'E008', 10.24, 0, 'Fake Data' , '17-APR-16', 'RS0', 'Thin Air', 1 );</v>
+      </c>
+      <c r="M3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>EX2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>42.72</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO expenses (expense_Id, expenseList_Id, cost, tax, object, dateIncurred, personclaimed, source, quantity) values ('EX2', 'E018', 42.72, 0, 'Unreal Object' , '17-APR-16', 'RS0', 'Utopia', 1 );</v>
+      </c>
+      <c r="M4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>EX3</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>EX4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
       <c r="N6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>EX5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>EX6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>EX7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>EX8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>EX9</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>EX10</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>EX11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>EX12</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>EX13</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>EX14</v>
@@ -1885,6 +2142,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1892,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,19 +2169,19 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F1" s="3" t="str">
         <f>"INSERT INTO locationList (" &amp; A1 &amp; ", " &amp; B1 &amp; ", " &amp; C1 &amp; ", " &amp; D1 &amp; ", " &amp;  E1 &amp; ") values ("</f>
@@ -1951,9 +2211,21 @@
         <f>"L" &amp; ROW()-2</f>
         <v>L0</v>
       </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
       <c r="F2" s="3" t="str">
         <f>F$1 &amp; "'" &amp; A2 &amp; "', '" &amp; B2 &amp; "',  '" &amp; C2 &amp; "',  '" &amp; D2 &amp; "',  '" &amp; E2 &amp; "' );"</f>
-        <v>INSERT INTO locationList (location_Id, meetingLocation, address, city, state) values ('L0', '',  '',  '',  '' );</v>
+        <v>INSERT INTO locationList (location_Id, meetingLocation, address, city, state) values ('L0', 'Manchester Community College',  '1066 Front Street',  'Manchester',  'NH' );</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -1966,6 +2238,22 @@
       <c r="A3" t="str">
         <f t="shared" ref="A3:A23" si="0">"L" &amp; ROW()-2</f>
         <v>L1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>F$1 &amp; "'" &amp; A3 &amp; "', '" &amp; B3 &amp; "',  '" &amp; C3 &amp; "',  '" &amp; D3 &amp; "',  '" &amp; E3 &amp; "' );"</f>
+        <v>INSERT INTO locationList (location_Id, meetingLocation, address, city, state) values ('L1', 'Manchester Barnes and Noble',  '1741 South Willow Street',  'Manchester',  'NH' );</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -2157,7 +2445,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>24</v>
@@ -2166,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="M1" s="3" t="str">
         <f>"INSERT INTO logs (" &amp; A1 &amp; ", " &amp; B1 &amp; ", " &amp; I1 &amp; ", " &amp; C1 &amp; ", " &amp; F1 &amp; ", " &amp; G1 &amp; ", " &amp; D1 &amp; ", " &amp; E1 &amp; ", " &amp; H1 &amp; ", " &amp; J1 &amp; ", " &amp; K1 &amp; ") values ("</f>
@@ -2392,16 +2680,16 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1" s="3" t="str">
         <f>"INSERT INTO rs_payments (" &amp; A1 &amp; ", " &amp; B1 &amp; ", " &amp; C1 &amp; ", " &amp;  D1 &amp; ") values ("</f>
@@ -2586,7 +2874,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3033,30 +3321,30 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="54" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D1" s="3" t="str">
-        <f>"INSERT INTO tutors (" &amp; A1 &amp; ", " &amp; B1 &amp; ", " &amp; C1 &amp; ") values ("</f>
-        <v>INSERT INTO tutors (tutor_Id, contact_Id, rateCents) values (</v>
+        <f>"INSERT INTO tutors (" &amp; A1 &amp; ", " &amp; B1 &amp; ") values ("</f>
+        <v>INSERT INTO tutors (tutor_Id, contact_Id) values (</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3065,8 +3353,8 @@
         <v>T0</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>$D$1 &amp; "'" &amp; A2 &amp; "', '" &amp; B2 &amp; "', " &amp; C2 &amp; ");"</f>
-        <v>INSERT INTO tutors (tutor_Id, contact_Id, rateCents) values ('T0', '', );</v>
+        <f>$D$1 &amp; "'" &amp; A2 &amp; "', '" &amp; B2 &amp; "');"</f>
+        <v>INSERT INTO tutors (tutor_Id, contact_Id) values ('T0', '');</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/rs tablespace definition.xlsx
+++ b/rs tablespace definition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="810" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="810" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ts_radiosilence" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="152">
   <si>
     <t>History</t>
   </si>
@@ -475,6 +475,21 @@
   </si>
   <si>
     <t>Unreal Object</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>S2</t>
   </si>
 </sst>
 </file>
@@ -859,7 +874,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1144,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,9 +1237,52 @@
       <c r="A2" t="s">
         <v>125</v>
       </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
       <c r="C2" s="3" t="str">
         <f>$C$1 &amp; "'" &amp; A2 &amp; "', '" &amp; B2 &amp; "');"</f>
-        <v>INSERT INTO rs_contact_subject (contact_Id, subject_Id) values ('RS0', '');</v>
+        <v>INSERT INTO rs_contact_subject (contact_Id, subject_Id) values ('RS0', 'S0');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1836,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2211,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,8 +2918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,8 +2938,8 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="str">
-        <f>"INSERT INTO subjects (" &amp; A1 &amp; ", " &amp;  B1 &amp; ") values ("</f>
-        <v>INSERT INTO subjects (subject_Id, subject) values (</v>
+        <f>"INSERT INTO subjectList (" &amp; A1 &amp; ", " &amp;  B1 &amp; ") values ("</f>
+        <v>INSERT INTO subjectList (subject_Id, subject) values (</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>27</v>
@@ -2912,7 +2970,7 @@
       </c>
       <c r="C2" s="3" t="str">
         <f>C$1 &amp; "'" &amp; A2 &amp; "',  '" &amp; B2 &amp; "' );"</f>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S0',  'Math' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S0',  'Math' );</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -2931,7 +2989,7 @@
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C29" si="1">C$1 &amp; "'" &amp; A3 &amp; "',  '" &amp; B3 &amp; "' );"</f>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S1',  'English' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S1',  'English' );</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -2950,7 +3008,7 @@
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S2',  'Proofreading' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S2',  'Proofreading' );</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -2972,7 +3030,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S3',  'Accounting' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S3',  'Accounting' );</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -2991,7 +3049,7 @@
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S4',  'Computer Science' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S4',  'Computer Science' );</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -3022,7 +3080,7 @@
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S5',  'Electrical Engineering' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S5',  'Electrical Engineering' );</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3035,7 +3093,7 @@
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S6',  'History' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S6',  'History' );</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3048,7 +3106,7 @@
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S7',  'Blackboard' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S7',  'Blackboard' );</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3061,7 +3119,7 @@
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S8',  'General Computer Help' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S8',  'General Computer Help' );</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3074,7 +3132,7 @@
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S9',  'Microsoft Applications' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S9',  'Microsoft Applications' );</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3087,7 +3145,7 @@
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S10',  'Business Management' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S10',  'Business Management' );</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3100,7 +3158,7 @@
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S11',  'Microbiology' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S11',  'Microbiology' );</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3113,7 +3171,7 @@
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S12',  'Critical Thinking' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S12',  'Critical Thinking' );</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3126,7 +3184,7 @@
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S13',  'Engineering' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S13',  'Engineering' );</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3139,7 +3197,7 @@
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S14',  'Psychology' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S14',  'Psychology' );</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3152,7 +3210,7 @@
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S15',  'Economics' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S15',  'Economics' );</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3165,7 +3223,7 @@
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S16',  'Chemistry' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S16',  'Chemistry' );</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3178,7 +3236,7 @@
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S17',  'Earth Science' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S17',  'Earth Science' );</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,7 +3249,7 @@
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S18',  'CADD' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S18',  'CADD' );</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3204,7 +3262,7 @@
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S19',  'Early Childhood Education' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S19',  'Early Childhood Education' );</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3217,7 +3275,7 @@
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S20',  'Sociology' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S20',  'Sociology' );</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3230,7 +3288,7 @@
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S21',  'A and P' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S21',  'A and P' );</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3243,7 +3301,7 @@
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S22',  'Medical Terminology' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S22',  'Medical Terminology' );</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3256,7 +3314,7 @@
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S23',  'Marketing' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S23',  'Marketing' );</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3269,7 +3327,7 @@
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S24',  'Biology' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S24',  'Biology' );</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3282,7 +3340,7 @@
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S25',  'Physics' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S25',  'Physics' );</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3295,7 +3353,7 @@
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S26',  'APA' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S26',  'APA' );</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3308,7 +3366,7 @@
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO subjects (subject_Id, subject) values ('S27',  'MLA' );</v>
+        <v>INSERT INTO subjectList (subject_Id, subject) values ('S27',  'MLA' );</v>
       </c>
     </row>
   </sheetData>

--- a/rs tablespace definition.xlsx
+++ b/rs tablespace definition.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="810" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="520" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ts_radiosilence" sheetId="19" r:id="rId1"/>
     <sheet name="contacts" sheetId="7" r:id="rId2"/>
     <sheet name="expenseList" sheetId="14" r:id="rId3"/>
-    <sheet name="expenses" sheetId="10" r:id="rId4"/>
-    <sheet name="locationList" sheetId="12" r:id="rId5"/>
-    <sheet name="logs" sheetId="4" r:id="rId6"/>
-    <sheet name="payments" sheetId="9" r:id="rId7"/>
-    <sheet name="subjectList" sheetId="13" r:id="rId8"/>
-    <sheet name="tutors" sheetId="20" r:id="rId9"/>
-    <sheet name="rs_contact_location" sheetId="17" r:id="rId10"/>
-    <sheet name="rs_contact_subject" sheetId="18" r:id="rId11"/>
+    <sheet name="locationList" sheetId="12" r:id="rId4"/>
+    <sheet name="subjectList" sheetId="13" r:id="rId5"/>
+    <sheet name="expenses" sheetId="10" r:id="rId6"/>
+    <sheet name="logs" sheetId="4" r:id="rId7"/>
+    <sheet name="payments" sheetId="9" r:id="rId8"/>
+    <sheet name="rs_contact_location" sheetId="17" r:id="rId9"/>
+    <sheet name="rs_contact_subject" sheetId="18" r:id="rId10"/>
+    <sheet name="tutors" sheetId="20" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="154">
   <si>
     <t>History</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Early Childhood Education</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>Tutors</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>RS, L</t>
   </si>
   <si>
-    <t>timeStart</t>
-  </si>
-  <si>
     <t>lengthHours</t>
   </si>
   <si>
@@ -288,18 +282,9 @@
     <t>tutor_Id</t>
   </si>
   <si>
-    <t>rateCents</t>
-  </si>
-  <si>
-    <t>discountCents</t>
-  </si>
-  <si>
     <t>payment_Id</t>
   </si>
   <si>
-    <t>amountCents</t>
-  </si>
-  <si>
     <t>payments</t>
   </si>
   <si>
@@ -438,9 +423,6 @@
     <t>Cauthorn</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>RS1</t>
   </si>
   <si>
@@ -462,9 +444,6 @@
     <t>dateIncurred</t>
   </si>
   <si>
-    <t>17-APR-16</t>
-  </si>
-  <si>
     <t>Fake Data</t>
   </si>
   <si>
@@ -477,19 +456,46 @@
     <t>Unreal Object</t>
   </si>
   <si>
+    <t>whenStarted</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
     <t>S0</t>
   </si>
   <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>S2</t>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>ecauthorn@ccsnh.edu</t>
+  </si>
+  <si>
+    <t>2/1/2016</t>
+  </si>
+  <si>
+    <t>4/17/16</t>
+  </si>
+  <si>
+    <t>10/1/2016</t>
+  </si>
+  <si>
+    <t>3/23/2015</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S5</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -573,7 +579,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -583,10 +589,8 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -874,7 +878,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,33 +897,33 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -929,18 +933,18 @@
         <v>100000000</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
@@ -950,43 +954,43 @@
         <v>1000</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="8">
         <f>LOG10(E4)+LEN(A4)</f>
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E4" s="6">
         <f>E6*10</f>
         <v>100000000000</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -996,68 +1000,68 @@
         <v>10000</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="8">
         <f>LOG10(E6)+LEN(A6)</f>
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E6" s="6">
         <f>E2*100</f>
         <v>10000000000</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C7" s="8">
         <f>LOG10(E7)+LEN(A7)</f>
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="6">
         <f>E6*10</f>
         <v>100000000000</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
@@ -1067,18 +1071,18 @@
         <v>10000</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
@@ -1088,46 +1092,46 @@
         <v>10000</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
         <v>91</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1141,78 +1145,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <f>"INSERT INTO rs_contact_location (" &amp; A1 &amp; ", " &amp; B1 &amp; ") values ("</f>
-        <v>INSERT INTO rs_contact_location (contact_Id, location_Id) values (</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f>$C$1 &amp; "'" &amp; A2 &amp; "', '" &amp; B2 &amp; "');"</f>
-        <v>INSERT INTO rs_contact_location (contact_Id, location_Id) values ('RS0', 'L0');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <f>$C$1 &amp; "'" &amp; A3 &amp; "', '" &amp; B3 &amp; "');"</f>
-        <v>INSERT INTO rs_contact_location (contact_Id, location_Id) values ('RS0', 'L1');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f>$C$1 &amp; "'" &amp; A4 &amp; "', '" &amp; B4 &amp; "');"</f>
-        <v>INSERT INTO rs_contact_location (contact_Id, location_Id) values ('RS1', 'L0');</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,68 +1157,222 @@
     <col min="3" max="3" width="58.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"INSERT INTO rs_contact_subject (" &amp; A1 &amp; ", " &amp; B1 &amp; ") values ("</f>
         <v>INSERT INTO rs_contact_subject (contact_Id, subject_Id) values (</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>$C$1 &amp; "'" &amp; A2 &amp; "', '" &amp; B2 &amp; "');"</f>
         <v>INSERT INTO rs_contact_subject (contact_Id, subject_Id) values ('RS0', 'S0');</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L2" t="str">
+        <f>$L$1 &amp; "'" &amp; A2 &amp; "',  TO_TIMESTAMP('" &amp; B2 &amp; "', 'mm/dd/yyyy hh24:mi'), TO_DATE('" &amp; C2 &amp;  "', 'MM/DD/YYYY'),  " &amp; D2 &amp; ",  '" &amp; E2 &amp; "',  '" &amp; F2 &amp; "',  '" &amp; G2 &amp; "',  '" &amp; H2 &amp; "',  " &amp; I2 &amp; ",  " &amp; J2 &amp; ");"</f>
+        <v>'RS0',  TO_TIMESTAMP('S0', 'mm/dd/yyyy hh24:mi'), TO_DATE('INSERT INTO rs_contact_subject (contact_Id, subject_Id) values ('RS0', 'S0');', 'MM/DD/YYYY'),  ,  '',  '',  '',  '',  ,  );</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" ref="C3:C6" si="0">$C$1 &amp; "'" &amp; A3 &amp; "', '" &amp; B3 &amp; "');"</f>
+        <v>INSERT INTO rs_contact_subject (contact_Id, subject_Id) values ('RS0', 'S1');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO rs_contact_subject (contact_Id, subject_Id) values ('RS0', 'S5');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO rs_contact_subject (contact_Id, subject_Id) values ('RS1', 'S5');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO rs_contact_subject (contact_Id, subject_Id) values ('RS1', 'S1');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="3" t="str">
+        <f>"INSERT INTO tutors (" &amp; A1 &amp; ", " &amp; B1 &amp; ", " &amp; C1 &amp; ") values ("</f>
+        <v>INSERT INTO tutors (tutor_Id, contact_Id, hired) values (</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"T" &amp; ROW()-2</f>
+        <v>T0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>151</v>
+      <c r="D2" s="3" t="str">
+        <f>$D$1 &amp; "'" &amp; A2 &amp; "', '" &amp; B2 &amp; "', TO_DATE('" &amp; C2 &amp; "','MM/DD/YYYY') );"</f>
+        <v>INSERT INTO tutors (tutor_Id, contact_Id, hired) values ('T0', 'RS0', TO_DATE('2/1/2016','MM/DD/YYYY') );</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A17" si="0">"T" &amp; ROW()-2</f>
+        <v>T1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>T2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>T3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>T4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>T5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>T6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>T7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>T8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>T9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>T10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>T11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>T12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>T13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>T14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>T15</v>
       </c>
     </row>
   </sheetData>
@@ -1294,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,44 +1402,44 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G1" s="3" t="str">
         <f>"INSERT INTO contacts (" &amp;  A1 &amp; ", " &amp;B1 &amp; ", " &amp;C1 &amp; ", " &amp;D1 &amp; ", " &amp;E1 &amp; ", " &amp; F1 &amp;") values ("</f>
         <v>INSERT INTO contacts (contact_Id, firstname, lastname, emailAddress, phoneNumber, rateOffered) values (</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1358,16 +1448,16 @@
         <v>RS0</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1386,41 +1476,38 @@
         <v>RS1</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G4" si="1">G$1 &amp;"'" &amp; A3 &amp; "',  '" &amp; B3 &amp; "' , '" &amp; C3 &amp; "' ,  '" &amp; D3 &amp; "' ,  '" &amp; E3 &amp; "', " &amp; F3 &amp; "  );"</f>
-        <v>INSERT INTO contacts (contact_Id, firstname, lastname, emailAddress, phoneNumber, rateOffered) values ('RS1',  'MrTheEd' , 'Cauthorn' ,  'null' ,  'null', 20  );</v>
+        <v>INSERT INTO contacts (contact_Id, firstname, lastname, emailAddress, phoneNumber, rateOffered) values ('RS1',  'MrTheEd' , 'Cauthorn' ,  'ecauthorn@ccsnh.edu' ,  '', 20  );</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1433,10 +1520,10 @@
         <v>INSERT INTO contacts (contact_Id, firstname, lastname, emailAddress, phoneNumber, rateOffered) values ('RS2',  '' , '' ,  '' ,  '',   );</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1445,7 +1532,7 @@
         <v>RS3</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1454,19 +1541,19 @@
         <v>RS4</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1712,9 +1799,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1723,7 +1811,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,46 +1825,46 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="str">
         <f>"INSERT INTO expenseList (" &amp; A1 &amp; ", " &amp; B1 &amp; ", " &amp;  C1 &amp; ") values ("</f>
         <v>INSERT INTO expenseList (expenseList_Id, type, description) values (</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>D$1 &amp; "'" &amp; A2 &amp; "',  '" &amp; B2 &amp; "' ,  '" &amp; C2 &amp; "' );"</f>
@@ -1786,30 +1874,30 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D6" si="0">D$1 &amp; "'" &amp; A3 &amp; "',  '" &amp; B3 &amp; "' ,  '" &amp; C3 &amp; "' );"</f>
@@ -1819,70 +1907,70 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO expenseList (expenseList_Id, type, description) values ('E011',  'W9 Employees' ,  'Accountant' );</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO expenseList (expenseList_Id, type, description) values ('E018',  'Office Supplies' ,  'pens and such' );</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO expenseList (expenseList_Id, type, description) values ('E24b',  'Meals' ,  'non-extravagent, related to business' );</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1891,322 +1979,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="171.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="3" t="str">
-        <f>"INSERT INTO expenses (" &amp;A1 &amp; ", " &amp;B1 &amp; ", " &amp; C1 &amp; ", " &amp; D1 &amp; ", " &amp; E1 &amp; ", " &amp; F1 &amp; ", " &amp; G1 &amp; ", " &amp; H1 &amp; ", " &amp; I1 &amp; ") values ("</f>
-        <v>INSERT INTO expenses (expense_Id, expenseList_Id, cost, tax, object, dateIncurred, personclaimed, source, quantity) values (</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>"EX" &amp; ROW()-2</f>
-        <v>EX0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="12">
-        <v>9.76</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2">
-        <v>42</v>
-      </c>
-      <c r="J2" s="3" t="str">
-        <f>J$1 &amp;"'" &amp; A2 &amp; "', '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp; ", '"  &amp; E2 &amp; "' , '" &amp;  F2   &amp; "', '" &amp; G2 &amp; "', '" &amp; H2 &amp; "', "  &amp; I2 &amp; " );"</f>
-        <v>INSERT INTO expenses (expense_Id, expenseList_Id, cost, tax, object, dateIncurred, personclaimed, source, quantity) values ('EX0', 'E008', 9.76, 0, 'Nothing Really' , '17-APR-16', 'RS0', 'Nowhere', 42 );</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A19" si="0">"EX" &amp; ROW()-2</f>
-        <v>EX1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3">
-        <v>10.24</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="str">
-        <f t="shared" ref="J3:J4" si="1">J$1 &amp;"'" &amp; A3 &amp; "', '" &amp; B3 &amp; "', " &amp; C3 &amp; ", " &amp; D3 &amp; ", '"  &amp; E3 &amp; "' , '" &amp;  F3   &amp; "', '" &amp; G3 &amp; "', '" &amp; H3 &amp; "', "  &amp; I3 &amp; " );"</f>
-        <v>INSERT INTO expenses (expense_Id, expenseList_Id, cost, tax, object, dateIncurred, personclaimed, source, quantity) values ('EX1', 'E008', 10.24, 0, 'Fake Data' , '17-APR-16', 'RS0', 'Thin Air', 1 );</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>EX2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4">
-        <v>42.72</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO expenses (expense_Id, expenseList_Id, cost, tax, object, dateIncurred, personclaimed, source, quantity) values ('EX2', 'E018', 42.72, 0, 'Unreal Object' , '17-APR-16', 'RS0', 'Utopia', 1 );</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>EX3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>EX4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>EX5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>EX6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>EX7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>EX8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>EX9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>EX10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>EX11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>EX12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>EX13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>EX14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>EX15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>EX16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>EX17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F2" twoDigitTextYear="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
@@ -2227,41 +1999,41 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F1" s="3" t="str">
         <f>"INSERT INTO locationList (" &amp; A1 &amp; ", " &amp; B1 &amp; ", " &amp; C1 &amp; ", " &amp; D1 &amp; ", " &amp;  E1 &amp; ") values ("</f>
         <v>INSERT INTO locationList (location_Id, meetingLocation, address, city, state) values (</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2270,16 +2042,16 @@
         <v>L0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>F$1 &amp; "'" &amp; A2 &amp; "', '" &amp; B2 &amp; "',  '" &amp; C2 &amp; "',  '" &amp; D2 &amp; "',  '" &amp; E2 &amp; "' );"</f>
@@ -2289,7 +2061,7 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2298,16 +2070,16 @@
         <v>L1</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>F$1 &amp; "'" &amp; A3 &amp; "', '" &amp; B3 &amp; "',  '" &amp; C3 &amp; "',  '" &amp; D3 &amp; "',  '" &amp; E3 &amp; "' );"</f>
@@ -2317,7 +2089,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2326,10 +2098,10 @@
         <v>L2</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2338,10 +2110,10 @@
         <v>L3</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2350,22 +2122,22 @@
         <v>L4</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2475,451 +2247,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U19"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="136.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="3" t="str">
-        <f>"INSERT INTO logs (" &amp; A1 &amp; ", " &amp; B1 &amp; ", " &amp; I1 &amp; ", " &amp; C1 &amp; ", " &amp; F1 &amp; ", " &amp; G1 &amp; ", " &amp; D1 &amp; ", " &amp; E1 &amp; ", " &amp; H1 &amp; ", " &amp; J1 &amp; ", " &amp; K1 &amp; ") values ("</f>
-        <v>INSERT INTO logs (log_Id, date, location_Id, appointmentMadeOn, contact_Id, subject_Id, timeStart, lengthHours, tutor_Id, rateCents, discountCents) values (</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>"AP" &amp; ROW()-2</f>
-        <v>AP0</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2"/>
-      <c r="H2"/>
-      <c r="M2" s="3" t="str">
-        <f>M$1 &amp; "'" &amp; A2 &amp; "',  " &amp; B2 &amp; ",  " &amp; C2 &amp; ",  " &amp; D2 &amp; ",  " &amp; E2 &amp; ",  " &amp; F2 &amp; ",  " &amp; G2 &amp; ",  " &amp; H2 &amp; ",  " &amp; I2 &amp; ",  " &amp; J2 &amp; ",  " &amp; K2 &amp; " );"</f>
-        <v>INSERT INTO logs (log_Id, date, location_Id, appointmentMadeOn, contact_Id, subject_Id, timeStart, lengthHours, tutor_Id, rateCents, discountCents) values ('AP0',  ,  ,  ,  ,  ,  ,  ,  ,  ,   );</v>
-      </c>
-      <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A19" si="0">"AP" &amp; ROW()-2</f>
-        <v>AP1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>AP2</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>AP3</v>
-      </c>
-      <c r="P5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>AP4</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>AP5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>AP6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>AP7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>AP8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>AP9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>AP10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>AP11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>AP12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>AP13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>AP14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>AP15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>AP16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>AP17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="3" t="str">
-        <f>"INSERT INTO rs_payments (" &amp; A1 &amp; ", " &amp; B1 &amp; ", " &amp; C1 &amp; ", " &amp;  D1 &amp; ") values ("</f>
-        <v>INSERT INTO rs_payments (payment_Id, datePaid, amountCents, contact_Id) values (</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>"P" &amp; ROW()-2</f>
-        <v>P0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="E2" s="3" t="str">
-        <f>E$1 &amp; "'" &amp; A2 &amp; "',  " &amp; B2 &amp; " ,   " &amp; C2 &amp; ",  " &amp; D2 &amp; " );"</f>
-        <v>INSERT INTO rs_payments (payment_Id, datePaid, amountCents, contact_Id) values ('P0',   ,   ,   );</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A14" si="0">"P" &amp; ROW()-2</f>
-        <v>P1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>P2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>P3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>P4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>P5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>P6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>P7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>P8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>P9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>P10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>P11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>P12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,7 +2265,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -2942,22 +2275,22 @@
         <v>INSERT INTO subjectList (subject_Id, subject) values (</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2976,7 +2309,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2995,7 +2328,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3011,13 +2344,13 @@
         <v>INSERT INTO subjectList (subject_Id, subject) values ('S2',  'Proofreading' );</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3033,10 +2366,10 @@
         <v>INSERT INTO subjectList (subject_Id, subject) values ('S3',  'Accounting' );</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3045,29 +2378,29 @@
         <v>S4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO subjectList (subject_Id, subject) values ('S4',  'Computer Science' );</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3076,7 +2409,7 @@
         <v>S5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3115,7 +2448,7 @@
         <v>S8</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3219,7 +2552,7 @@
         <v>S16</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3362,11 +2695,809 @@
         <v>S27</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO subjectList (subject_Id, subject) values ('S27',  'MLA' );</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="171.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="str">
+        <f>"INSERT INTO expenses (" &amp;A1 &amp; ", " &amp;B1 &amp; ", " &amp; C1 &amp; ", " &amp; D1 &amp; ", " &amp; E1 &amp; ", " &amp; F1 &amp; ", " &amp; G1 &amp; ", " &amp; H1 &amp; ", " &amp; I1 &amp; ") values ("</f>
+        <v>INSERT INTO expenses (expense_Id, expenseList_Id, cost, tax, object, dateIncurred, personclaimed, source, quantity) values (</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"EX" &amp; ROW()-2</f>
+        <v>EX0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="10">
+        <v>9.76</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2">
+        <v>42</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f>J$1 &amp;"'" &amp; A2 &amp; "', '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp; ", '"  &amp; E2 &amp; "' , TO_DATE('" &amp;  F2   &amp; "', 'MM/DD/YYYY'), '" &amp; G2 &amp; "', '" &amp; H2 &amp; "', "  &amp; I2 &amp; " );"</f>
+        <v>INSERT INTO expenses (expense_Id, expenseList_Id, cost, tax, object, dateIncurred, personclaimed, source, quantity) values ('EX0', 'E008', 9.76, 0, 'Nothing Really' , TO_DATE('4/17/16', 'MM/DD/YYYY'), 'RS0', 'Nowhere', 42 );</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A19" si="0">"EX" &amp; ROW()-2</f>
+        <v>EX1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3">
+        <v>10.24</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f t="shared" ref="J3:J4" si="1">J$1 &amp;"'" &amp; A3 &amp; "', '" &amp; B3 &amp; "', " &amp; C3 &amp; ", " &amp; D3 &amp; ", '"  &amp; E3 &amp; "' , TO_DATE('" &amp;  F3   &amp; "', 'MM/DD/YYYY'), '" &amp; G3 &amp; "', '" &amp; H3 &amp; "', "  &amp; I3 &amp; " );"</f>
+        <v>INSERT INTO expenses (expense_Id, expenseList_Id, cost, tax, object, dateIncurred, personclaimed, source, quantity) values ('EX1', 'E008', 10.24, 0, 'Fake Data' , TO_DATE('4/17/16', 'MM/DD/YYYY'), 'RS0', 'Thin Air', 1 );</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>EX2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>42.72</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO expenses (expense_Id, expenseList_Id, cost, tax, object, dateIncurred, personclaimed, source, quantity) values ('EX2', 'E018', 42.72, 0, 'Unreal Object' , TO_DATE('4/17/16', 'MM/DD/YYYY'), 'RS0', 'Utopia', 1 );</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>EX3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>EX4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>EX5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>EX6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>EX7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>EX8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>EX9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>EX10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>EX11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>EX12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>EX13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>EX14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>EX15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>EX16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>EX17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="125.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="3" t="str">
+        <f>"INSERT INTO logs (" &amp; A1 &amp; ", " &amp; B1 &amp; ", " &amp; C1 &amp; ", " &amp; D1 &amp; ", " &amp; E1 &amp; ", " &amp; F1 &amp; ", "  &amp; G1 &amp; ", " &amp; H1 &amp; ", " &amp; I1 &amp; ", " &amp; J1 &amp; ") values ("</f>
+        <v>INSERT INTO logs (log_Id, whenStarted, appointmentMadeOn, lengthHours, contact_Id, subject_Id, tutor_Id, location_Id, rate, discount) values (</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"AP" &amp; ROW()-2</f>
+        <v>AP0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="str">
+        <f>$L$1 &amp; "'" &amp; A2 &amp; "',  TO_TIMESTAMP('" &amp; B2 &amp; "', 'mm/dd/yyyy hh24:mi'), TO_DATE('" &amp; C2 &amp;  "', 'MM/DD/YYYY'),  " &amp; D2 &amp; ",  '" &amp; E2 &amp; "',  '" &amp; F2 &amp; "',  '" &amp; G2 &amp; "',  '" &amp; H2 &amp; "',  " &amp; I2 &amp; ",  " &amp; J2 &amp; ");"</f>
+        <v>INSERT INTO logs (log_Id, whenStarted, appointmentMadeOn, lengthHours, contact_Id, subject_Id, tutor_Id, location_Id, rate, discount) values ('AP0',  TO_TIMESTAMP('10/1/2016', 'mm/dd/yyyy hh24:mi'), TO_DATE('04/26/2016', 'MM/DD/YYYY'),  2,  'RS1',  'S0',  'T0',  'L1',  20,  0);</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A22" si="0">"AP" &amp; ROW()-2</f>
+        <v>AP1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>AP2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>AP3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>AP4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>AP5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>AP6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>AP7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>AP8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>AP9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>AP10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>AP11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>AP12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>AP13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>AP14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>AP15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>AP16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>AP17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>AP18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>AP19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>AP20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="str">
+        <f>"INSERT INTO payments (" &amp; A1 &amp; ", " &amp; B1 &amp; ", " &amp; C1 &amp; ", " &amp;  D1 &amp; ") values ("</f>
+        <v>INSERT INTO payments (payment_Id, datePaid, amount, contact_Id) values (</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"P" &amp; ROW()-2</f>
+        <v>P0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>E$1 &amp; "'" &amp; A2 &amp; "',  TO_DATE('" &amp; B2 &amp; "', 'MM/DD/YYYY') ,   " &amp; C2 &amp; ",  '" &amp; D2 &amp; "' );"</f>
+        <v>INSERT INTO payments (payment_Id, datePaid, amount, contact_Id) values ('P0',  TO_DATE('3/23/2015', 'MM/DD/YYYY') ,   25,  'RS1' );</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A14" si="0">"P" &amp; ROW()-2</f>
+        <v>P1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>P3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>P4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>P5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>P6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>P7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>P8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>P9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>P10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>P11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>P12</v>
       </c>
     </row>
   </sheetData>
@@ -3376,133 +3507,65 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="54" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="3" t="str">
-        <f>"INSERT INTO tutors (" &amp; A1 &amp; ", " &amp; B1 &amp; ") values ("</f>
-        <v>INSERT INTO tutors (tutor_Id, contact_Id) values (</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>"T" &amp; ROW()-2</f>
-        <v>T0</v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>$D$1 &amp; "'" &amp; A2 &amp; "', '" &amp; B2 &amp; "');"</f>
-        <v>INSERT INTO tutors (tutor_Id, contact_Id) values ('T0', '');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A17" si="0">"T" &amp; ROW()-2</f>
-        <v>T1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>T2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>T3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>T4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>T5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>T6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>T7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>T8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>T9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>T10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>T11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>T12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>T13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>T14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>T15</v>
+        <v>65</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <f>"INSERT INTO rs_contact_location (" &amp; A1 &amp; ", " &amp; B1 &amp; ") values ("</f>
+        <v>INSERT INTO rs_contact_location (contact_Id, location_Id) values (</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>$C$1 &amp; "'" &amp; A2 &amp; "', '" &amp; B2 &amp; "');"</f>
+        <v>INSERT INTO rs_contact_location (contact_Id, location_Id) values ('RS0', 'L0');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f>$C$1 &amp; "'" &amp; A3 &amp; "', '" &amp; B3 &amp; "');"</f>
+        <v>INSERT INTO rs_contact_location (contact_Id, location_Id) values ('RS0', 'L1');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" ref="C4" si="0">$C$1 &amp; "'" &amp; A4 &amp; "', '" &amp; B4 &amp; "');"</f>
+        <v>INSERT INTO rs_contact_location (contact_Id, location_Id) values ('RS1', 'L0');</v>
       </c>
     </row>
   </sheetData>
